--- a/Tables/попытка взломать инвертор мэи - скорость.xlsx
+++ b/Tables/попытка взломать инвертор мэи - скорость.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9B3E35-0279-4100-A071-38383A89B3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C1154-AE88-4635-911D-1E7880432364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0A2A3DE0-DAD0-4E60-B84D-A186A537FB36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A2A3DE0-DAD0-4E60-B84D-A186A537FB36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Команды инвертора МЭИ" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="126">
   <si>
     <t>C8</t>
   </si>
@@ -352,6 +353,69 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>group SYSTEM CONTROL</t>
+  </si>
+  <si>
+    <t>RESET DEVICE</t>
+  </si>
+  <si>
+    <t>0x200200</t>
+  </si>
+  <si>
+    <t>Сброс устройства</t>
+  </si>
+  <si>
+    <t>UNSIGNED16</t>
+  </si>
+  <si>
+    <t>SYSTEM CONTROL</t>
+  </si>
+  <si>
+    <t>RESET PARAMETERS</t>
+  </si>
+  <si>
+    <t>0x200201</t>
+  </si>
+  <si>
+    <t>Сброс параметров</t>
+  </si>
+  <si>
+    <t>APPLY PARAMETERS</t>
+  </si>
+  <si>
+    <t>0x200202</t>
+  </si>
+  <si>
+    <t>Принять параметры</t>
+  </si>
+  <si>
+    <t>BEGIN POSITION SENSOR CALIBRATION</t>
+  </si>
+  <si>
+    <t>0x200203</t>
+  </si>
+  <si>
+    <t>Калибровка ДПР</t>
+  </si>
+  <si>
+    <t>INVERT ROTATION</t>
+  </si>
+  <si>
+    <t>0x200204</t>
+  </si>
+  <si>
+    <t>Инвертировать вращение</t>
+  </si>
+  <si>
+    <t>RESET FAULTS</t>
+  </si>
+  <si>
+    <t>0x200205</t>
+  </si>
+  <si>
+    <t>Сброс ошибок</t>
   </si>
 </sst>
 </file>
@@ -1651,6 +1715,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDBA143-0CB9-4F65-9FF8-04A317791872}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B3F0D2-EA01-4524-AC11-1710B4CC2EE1}">
   <dimension ref="A1:R26"/>
   <sheetViews>
@@ -2788,11 +3019,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5507F89-57B8-4DB0-BE7B-76B487D37713}">
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -4047,7 +4278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89F81D7-6169-4E8B-A115-F52EF5F4A4A3}">
   <dimension ref="A1:A26"/>
   <sheetViews>
